--- a/saltmarsh/original_fieldsheets/marinegeo_marsh_epifauna_sizes_datasheet.xlsx
+++ b/saltmarsh/original_fieldsheets/marinegeo_marsh_epifauna_sizes_datasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CollabProj\MarineGEO SERC\Marsh Plant Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\saltmarsh\original_fieldsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D9E60-2226-43DE-9850-EB271D568DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD0F09-9E92-47FE-855E-04FF8573A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{E4026F0E-B2E4-4F51-992B-D584C4E19323}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11505" xr2:uid="{E4026F0E-B2E4-4F51-992B-D584C4E19323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <r>
       <t>MarineGEO site code</t>
@@ -57,74 +57,25 @@
     <t>Transect #</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Latitude of transect beginning </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Longitude of transect beginning </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Latitidue of transect ending  </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Longitude of transect ending</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-  </si>
-  <si>
     <t>Personnel</t>
   </si>
   <si>
     <t>Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Salt Marsh Epifauna: Sizes</t>
+  </si>
+  <si>
+    <t>Transect</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Taxon ID</t>
+  </si>
+  <si>
+    <t>Measurement (mm)</t>
   </si>
   <si>
     <r>
@@ -146,44 +97,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> MarineGEO Site Codes can be found at marinegeo.github.io/standards; </t>
+      <t xml:space="preserve"> MarineGEO Site Codes can be found at marinegeo.github.io/standards;</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In Decimal Degrees to 5 decimal places (e.g. -43.12345, 142.12345)	</t>
-    </r>
-  </si>
-  <si>
-    <t>Salt Marsh Epifauna: Sizes</t>
-  </si>
-  <si>
-    <t>Transect</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Taxon ID</t>
-  </si>
-  <si>
-    <t>Measurement (mm)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -404,19 +319,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -485,104 +387,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -593,19 +408,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -925,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C19CA5-57A8-42B8-ABC3-7CE9E2F44F50}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,635 +801,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="10" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="32"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="32"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="32"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="32"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="32"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="32"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="32"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="32"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="32"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="32"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="32"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="32"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="32"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="32"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="32"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="32"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="32"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="32"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="32"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="32"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="32"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="32"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="32"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="32"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="32"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="32"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="32"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="32"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="32"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="32"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
+  <mergeCells count="76">
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:J7"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14896194.v1</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>